--- a/biology/Botanique/Jambosier_rouge/Jambosier_rouge.xlsx
+++ b/biology/Botanique/Jambosier_rouge/Jambosier_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syzygium malaccense, Pommier d'amour, Pommier d'eau
 Le jambosier rouge (Syzygium malaccense) est une espèce de plantes à fleurs de la famille des Myrtacées. C'est un arbre fruitier originaire du Sud-Est asiatique (Indonésie, Malaisie).
-Il est aussi appelé tumu 'ahi'a, tumu kehià en Polynésie française, pommier d'amour en Guyane, pôm Tahiti en créole antillais, pomme d'eau en Martinique, pomme kanak en Nouvelle-Calédonie, jamalac à l'île Maurice et aux Seychelles (en référence à un arbre fruitier de la même famille originaire de l'Indonésie), jambos à La Réunion, jambose rouge, pomme malacca[2] (malaka) en Guadeloupe, makoba à Madagascar, et makopa aux Philippines.
+Il est aussi appelé tumu 'ahi'a, tumu kehià en Polynésie française, pommier d'amour en Guyane, pôm Tahiti en créole antillais, pomme d'eau en Martinique, pomme kanak en Nouvelle-Calédonie, jamalac à l'île Maurice et aux Seychelles (en référence à un arbre fruitier de la même famille originaire de l'Indonésie), jambos à La Réunion, jambose rouge, pomme malacca (malaka) en Guadeloupe, makoba à Madagascar, et makopa aux Philippines.
 Synonymes scientifiques : Eugenia malaccensis L., Jambosa malaccensis (L.) DC.
 Ne pas confondre avec Solanum pseudocapsicum, appelé aussi pommier d'amour, une solanacée décorative dont les petites baies de couleur rouge vif sont toxiques.
 </t>
@@ -515,12 +527,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre, mesurant de 4 à 10 m de haut, au port vaguement conique et au feuillage persistant.
 Les feuilles sont ovales, oblongues-lancéolées, un peu pendantes et de grande taille, 15-35 × 8-18 cm, coriaces, vernissées.
 Les inflorescences sont des racèmes axillaires, à axe court de 10-15 mm, portant de 4 à 10 fleurs. Les pétales sont roses à rouges, de 10-15 mm. La fleur comporte un très grand nombre d'étamines rouges (environ 500).
-Ses fruits sont de grosses drupes comestibles et parfumées sentant la rose, en forme de petite poire et d'environ la taille d'une pomme[3]. La peau est luisante, mais légèrement irrégulière, de couleur rosâtre à rouge vif. Le tanin rouge de la peau tache les vêtements durablement. La chair est très croquante et juteuse. Son goût est très doux bien qu'à peine sucré et donc rafraîchissant. Le fruit contient un noyau de forme ronde.
+Ses fruits sont de grosses drupes comestibles et parfumées sentant la rose, en forme de petite poire et d'environ la taille d'une pomme. La peau est luisante, mais légèrement irrégulière, de couleur rosâtre à rouge vif. Le tanin rouge de la peau tache les vêtements durablement. La chair est très croquante et juteuse. Son goût est très doux bien qu'à peine sucré et donc rafraîchissant. Le fruit contient un noyau de forme ronde.
 			Fleurs.
 			Pommes d'eau.
 			Pommes d'eau.
@@ -555,10 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentaire
-L'arbre est cultivé pour son fruit dans beaucoup de pays tropicaux humides (rusticité USDA zone 11) où il s'est parfois naturalisé.
-Médicinal
-Dans la pharmacopée kanak, la décoction d'écorce de cette espèce soigne la gratte (ciguatera). Un bouillon de feuilles est également préparé pour soigner la diarrhée. Les furoncles sont traités en y apposant des feuilles chauffées[4].
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est cultivé pour son fruit dans beaucoup de pays tropicaux humides (rusticité USDA zone 11) où il s'est parfois naturalisé.
 </t>
         </is>
       </c>
@@ -584,10 +601,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médicinal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la pharmacopée kanak, la décoction d'écorce de cette espèce soigne la gratte (ciguatera). Un bouillon de feuilles est également préparé pour soigner la diarrhée. Les furoncles sont traités en y apposant des feuilles chauffées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jambosier_rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jambosier_rouge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Composition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la Base de données sur la composition nutritionnelle des aliments dans la région de Taïwan publiée par la Direction de la Santé du Yuan administratif (de Taïwan), le résultat de l'analyse des composants de la jambose est le suivant : 100 g de jambose contiennent 34 kcal, 90,6 g d'eau, 0,5 g de protéines brutes, 0,2 g de graisses brutes, 8,6 g de glucides, 0,6 g de fibres brutes, 1,0 g de fibres alimentaires, 0,2 g de cendres, 0,02 g de vitamine B1, 0,03 g de vitamine B2, 0,03 g de niacine, 0,03 g de vitamine B6, 6,0 mg de vitamine C, 25 mg de sodium, 340 mg de potassium, 28 mg de calcium, 13 mg de magnésium, 35 mg de phosphore, 1,5 mg de fer et 0,2 mg de zinc
 </t>
